--- a/data/out/wiki/men/uefa/eu/tab_prob_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/tab_prob_eu_uefa.xlsx
@@ -953,19 +953,19 @@
         <v>0.1345737775854609</v>
       </c>
       <c r="J6">
-        <v>0.5411954939918102</v>
+        <v>0.5411954939918103</v>
       </c>
       <c r="K6">
         <v>0.1733288266336384</v>
       </c>
       <c r="L6">
-        <v>0.08199206275836468</v>
+        <v>0.08199206275836471</v>
       </c>
       <c r="M6">
-        <v>-0.2553208893920033</v>
+        <v>-0.2553208893920031</v>
       </c>
       <c r="N6">
-        <v>0.2553208893920033</v>
+        <v>0.2553208893920031</v>
       </c>
       <c r="O6">
         <v>0.5106417787840063</v>
@@ -1000,31 +1000,31 @@
         <v>2</v>
       </c>
       <c r="H7">
-        <v>0.580187306853894</v>
+        <v>0.5781195834465759</v>
       </c>
       <c r="I7">
-        <v>0.1255778318611186</v>
+        <v>0.1257466917056539</v>
       </c>
       <c r="J7">
-        <v>0.2942348612849874</v>
+        <v>0.2961337248477702</v>
       </c>
       <c r="K7">
-        <v>0.2559565784311651</v>
+        <v>0.253888855023847</v>
       </c>
       <c r="L7">
-        <v>-0.00899594572434223</v>
+        <v>-0.008827085879807017</v>
       </c>
       <c r="M7">
-        <v>-0.2469606327068228</v>
+        <v>-0.2450617691440402</v>
       </c>
       <c r="N7">
-        <v>0.2559565784311651</v>
+        <v>0.253888855023847</v>
       </c>
       <c r="O7">
-        <v>0.5119131568623301</v>
+        <v>0.5077777100476941</v>
       </c>
       <c r="P7">
-        <v>0.02285713399506739</v>
+        <v>0.0229073098942692</v>
       </c>
       <c r="Q7" t="s">
         <v>64</v>
@@ -1162,22 +1162,22 @@
         <v>0.5187635159156364</v>
       </c>
       <c r="I10">
-        <v>0.1413896364471976</v>
+        <v>0.1413896364471977</v>
       </c>
       <c r="J10">
-        <v>0.3398468476371658</v>
+        <v>0.3398468476371659</v>
       </c>
       <c r="K10">
         <v>0.2357828285101357</v>
       </c>
       <c r="L10">
-        <v>0.02244690516966458</v>
+        <v>0.0224469051696646</v>
       </c>
       <c r="M10">
-        <v>-0.2582297336798003</v>
+        <v>-0.2582297336798002</v>
       </c>
       <c r="N10">
-        <v>0.2582297336798003</v>
+        <v>0.2582297336798002</v>
       </c>
       <c r="O10">
         <v>0.5164594673596006</v>
@@ -1215,7 +1215,7 @@
         <v>0.7751417721701237</v>
       </c>
       <c r="I11">
-        <v>0.06103286384976525</v>
+        <v>0.06103286384976526</v>
       </c>
       <c r="J11">
         <v>0.1638253639801111</v>
@@ -1224,16 +1224,16 @@
         <v>0.2563782562544873</v>
       </c>
       <c r="L11">
-        <v>-0.08035677259743237</v>
+        <v>-0.08035677259743239</v>
       </c>
       <c r="M11">
-        <v>-0.1760214836570547</v>
+        <v>-0.1760214836570548</v>
       </c>
       <c r="N11">
         <v>0.2563782562544873</v>
       </c>
       <c r="O11">
-        <v>0.5127565125089744</v>
+        <v>0.5127565125089745</v>
       </c>
       <c r="P11">
         <v>0.01501668962786831</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06148312146823426</v>
+        <v>0.06148312146823425</v>
       </c>
       <c r="K12">
         <v>0.1633751063616421</v>
       </c>
       <c r="L12">
-        <v>-0.06103286384976525</v>
+        <v>-0.06103286384976526</v>
       </c>
       <c r="M12">
         <v>-0.1023422425118769</v>
@@ -1321,7 +1321,7 @@
         <v>0.7751417721701237</v>
       </c>
       <c r="I13">
-        <v>0.06103286384976525</v>
+        <v>0.06103286384976526</v>
       </c>
       <c r="J13">
         <v>0.1638253639801111</v>
@@ -1330,7 +1330,7 @@
         <v>-0.1633751063616421</v>
       </c>
       <c r="L13">
-        <v>0.06103286384976525</v>
+        <v>0.06103286384976526</v>
       </c>
       <c r="M13">
         <v>0.1023422425118769</v>
@@ -1530,31 +1530,31 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>0.3677607638895994</v>
+        <v>0.365712976269027</v>
       </c>
       <c r="I17">
-        <v>0.1487584565967847</v>
+        <v>0.1486661016051938</v>
       </c>
       <c r="J17">
-        <v>0.483480779513616</v>
+        <v>0.4856209221257792</v>
       </c>
       <c r="K17">
-        <v>-0.2561242668438707</v>
+        <v>-0.2581720544644431</v>
       </c>
       <c r="L17">
-        <v>0.03725245926226668</v>
+        <v>0.03716010427067583</v>
       </c>
       <c r="M17">
-        <v>0.2188718075816041</v>
+        <v>0.2210119501937673</v>
       </c>
       <c r="N17">
-        <v>0.2561242668438707</v>
+        <v>0.2581720544644431</v>
       </c>
       <c r="O17">
-        <v>0.5122485336877416</v>
+        <v>0.5163441089288863</v>
       </c>
       <c r="P17">
-        <v>0.006765214199724301</v>
+        <v>0.006759163657951913</v>
       </c>
       <c r="Q17" t="s">
         <v>68</v>
@@ -1636,31 +1636,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.7495608948114385</v>
+        <v>0.7479438093251026</v>
       </c>
       <c r="I19">
-        <v>0.07063197026022305</v>
+        <v>0.07083375926355839</v>
       </c>
       <c r="J19">
-        <v>0.1798071349283384</v>
+        <v>0.181222431411339</v>
       </c>
       <c r="K19">
-        <v>0.2660222962709048</v>
+        <v>0.264405210784569</v>
       </c>
       <c r="L19">
-        <v>-0.07902789368535518</v>
+        <v>-0.07882610468201984</v>
       </c>
       <c r="M19">
-        <v>-0.1869944025855496</v>
+        <v>-0.185579106102549</v>
       </c>
       <c r="N19">
-        <v>0.2660222962709048</v>
+        <v>0.264405210784569</v>
       </c>
       <c r="O19">
-        <v>0.5320445925418096</v>
+        <v>0.5288104215691378</v>
       </c>
       <c r="P19">
-        <v>0.007422944147694385</v>
+        <v>0.007457797536929802</v>
       </c>
       <c r="Q19" t="s">
         <v>69</v>
@@ -1689,31 +1689,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.9320681310800076</v>
+        <v>0.9314320205147569</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06793186891999238</v>
+        <v>0.06856797948524314</v>
       </c>
       <c r="K20">
-        <v>0.1825072362685691</v>
+        <v>0.1834882111896543</v>
       </c>
       <c r="L20">
-        <v>-0.07063197026022305</v>
+        <v>-0.07083375926355839</v>
       </c>
       <c r="M20">
-        <v>-0.111875266008346</v>
+        <v>-0.1126544519260958</v>
       </c>
       <c r="N20">
-        <v>0.1825072362685691</v>
+        <v>0.1834882111896543</v>
       </c>
       <c r="O20">
-        <v>0.3650144725371382</v>
+        <v>0.3669764223793085</v>
       </c>
       <c r="P20">
-        <v>0.002345078892778865</v>
+        <v>0.002365422654613125</v>
       </c>
       <c r="Q20" t="s">
         <v>69</v>
@@ -2113,31 +2113,31 @@
         <v>3</v>
       </c>
       <c r="H28">
-        <v>0.1044847055244278</v>
+        <v>0.1035582536879293</v>
       </c>
       <c r="I28">
-        <v>0.01105441792759271</v>
+        <v>0.01101037230328506</v>
       </c>
       <c r="J28">
-        <v>0.8844608765479794</v>
+        <v>0.8854313740087856</v>
       </c>
       <c r="K28">
-        <v>-0.1332493681916151</v>
+        <v>-0.1341758200281135</v>
       </c>
       <c r="L28">
-        <v>-0.0888555730715072</v>
+        <v>-0.08889961869581485</v>
       </c>
       <c r="M28">
-        <v>0.2221049412631222</v>
+        <v>0.2230754387239283</v>
       </c>
       <c r="N28">
-        <v>0.2221049412631222</v>
+        <v>0.2230754387239283</v>
       </c>
       <c r="O28">
-        <v>0.4442098825262445</v>
+        <v>0.4461508774478567</v>
       </c>
       <c r="P28">
-        <v>0.004593104533594124</v>
+        <v>0.004559238704794746</v>
       </c>
       <c r="Q28" t="s">
         <v>71</v>
@@ -2855,31 +2855,31 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>0.5551827458598216</v>
+        <v>0.553073778772501</v>
       </c>
       <c r="I42">
-        <v>0.130812690134724</v>
+        <v>0.1309706264225086</v>
       </c>
       <c r="J42">
-        <v>0.3140045640054543</v>
+        <v>0.3159555948049905</v>
       </c>
       <c r="K42">
-        <v>-0.2523194613869293</v>
+        <v>-0.25442842847425</v>
       </c>
       <c r="L42">
-        <v>0.08274034363305816</v>
+        <v>0.0828982799208427</v>
       </c>
       <c r="M42">
-        <v>0.169579117753871</v>
+        <v>0.1715301485534071</v>
       </c>
       <c r="N42">
-        <v>0.2523194613869293</v>
+        <v>0.25442842847425</v>
       </c>
       <c r="O42">
-        <v>0.5046389227738584</v>
+        <v>0.5088568569484998</v>
       </c>
       <c r="P42">
-        <v>0.01706848274320029</v>
+        <v>0.01710009340326598</v>
       </c>
       <c r="Q42" t="s">
         <v>75</v>
@@ -2908,31 +2908,31 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>0.8102049485886937</v>
+        <v>0.8088580434252878</v>
       </c>
       <c r="I43">
-        <v>0.04775568962173118</v>
+        <v>0.04791349487671182</v>
       </c>
       <c r="J43">
-        <v>0.1420393617895749</v>
+        <v>0.1432284616980002</v>
       </c>
       <c r="K43">
-        <v>0.2550222027288721</v>
+        <v>0.2557842646527868</v>
       </c>
       <c r="L43">
-        <v>-0.08305700051299283</v>
+        <v>-0.08305713154579675</v>
       </c>
       <c r="M43">
-        <v>-0.1719652022158794</v>
+        <v>-0.1727271331069902</v>
       </c>
       <c r="N43">
-        <v>0.2550222027288721</v>
+        <v>0.2557842646527868</v>
       </c>
       <c r="O43">
-        <v>0.5100444054577442</v>
+        <v>0.5115685293055738</v>
       </c>
       <c r="P43">
-        <v>0.009514434224994225</v>
+        <v>0.009568550232727078</v>
       </c>
       <c r="Q43" t="s">
         <v>73</v>
@@ -3226,31 +3226,31 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>0.2372583142633871</v>
+        <v>0.2389536299135206</v>
       </c>
       <c r="I49">
-        <v>0.1019028818587046</v>
+        <v>0.1021100533848839</v>
       </c>
       <c r="J49">
-        <v>0.6608388038779083</v>
+        <v>0.6589363167015954</v>
       </c>
       <c r="K49">
-        <v>-0.2196271372041484</v>
+        <v>-0.2179318215540149</v>
       </c>
       <c r="L49">
-        <v>-0.05457117971868893</v>
+        <v>-0.05436400819250961</v>
       </c>
       <c r="M49">
-        <v>0.2741983169228374</v>
+        <v>0.2722958297465245</v>
       </c>
       <c r="N49">
-        <v>0.2741983169228374</v>
+        <v>0.2722958297465245</v>
       </c>
       <c r="O49">
-        <v>0.5483966338456747</v>
+        <v>0.5445916594930491</v>
       </c>
       <c r="P49">
-        <v>0.0128752392292482</v>
+        <v>0.01291830893320134</v>
       </c>
       <c r="Q49" t="s">
         <v>72</v>
@@ -3288,19 +3288,19 @@
         <v>0.8795597135010513</v>
       </c>
       <c r="K50">
-        <v>-0.131222760614575</v>
+        <v>-0.1329180762647085</v>
       </c>
       <c r="L50">
-        <v>-0.08749814900856795</v>
+        <v>-0.08770532053474728</v>
       </c>
       <c r="M50">
-        <v>0.2187209096231431</v>
+        <v>0.220623396799456</v>
       </c>
       <c r="N50">
-        <v>0.2187209096231431</v>
+        <v>0.220623396799456</v>
       </c>
       <c r="O50">
-        <v>0.437441819246286</v>
+        <v>0.4412467935989118</v>
       </c>
       <c r="P50">
         <v>0.005572095288662897</v>
@@ -3968,31 +3968,31 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>0.3111300343730384</v>
+        <v>0.3130742614062856</v>
       </c>
       <c r="I63">
-        <v>0.1308777810001884</v>
+        <v>0.131033838861021</v>
       </c>
       <c r="J63">
-        <v>0.5579921846267731</v>
+        <v>0.5558918997326934</v>
       </c>
       <c r="K63">
-        <v>0.1660669744261783</v>
+        <v>0.1680112014594255</v>
       </c>
       <c r="L63">
-        <v>0.0823525669183616</v>
+        <v>0.08250862477919413</v>
       </c>
       <c r="M63">
-        <v>-0.2484195413445398</v>
+        <v>-0.2505198262386196</v>
       </c>
       <c r="N63">
-        <v>0.2484195413445398</v>
+        <v>0.2505198262386196</v>
       </c>
       <c r="O63">
-        <v>0.4968390826890797</v>
+        <v>0.5010396524772393</v>
       </c>
       <c r="P63">
-        <v>0.01702855792731673</v>
+        <v>0.01706070624384681</v>
       </c>
       <c r="Q63" t="s">
         <v>78</v>
@@ -4030,19 +4030,19 @@
         <v>0.8118022734779342</v>
       </c>
       <c r="K64">
-        <v>-0.1708240590178439</v>
+        <v>-0.1727682860510911</v>
       </c>
       <c r="L64">
-        <v>-0.08298602983331731</v>
+        <v>-0.08314208769414984</v>
       </c>
       <c r="M64">
-        <v>0.2538100888511611</v>
+        <v>0.2559103737452408</v>
       </c>
       <c r="N64">
-        <v>0.2538100888511611</v>
+        <v>0.2559103737452408</v>
       </c>
       <c r="O64">
-        <v>0.5076201777023223</v>
+        <v>0.5118207474904817</v>
       </c>
       <c r="P64">
         <v>0.009451783177062377</v>
@@ -4127,31 +4127,31 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>0.2379468178250176</v>
+        <v>0.2396446960338722</v>
       </c>
       <c r="I66">
-        <v>0.1011070273602315</v>
+        <v>0.101316779340817</v>
       </c>
       <c r="J66">
-        <v>0.6609461548147509</v>
+        <v>0.6590385246253107</v>
       </c>
       <c r="K66">
-        <v>-0.2147467939411937</v>
+        <v>-0.213048915732339</v>
       </c>
       <c r="L66">
-        <v>-0.05643298948896823</v>
+        <v>-0.05622323750838265</v>
       </c>
       <c r="M66">
-        <v>0.2711797834301619</v>
+        <v>0.2692721532407216</v>
       </c>
       <c r="N66">
-        <v>0.2711797834301619</v>
+        <v>0.2692721532407216</v>
       </c>
       <c r="O66">
-        <v>0.5423595668603238</v>
+        <v>0.5385443064814432</v>
       </c>
       <c r="P66">
-        <v>0.01930090016325802</v>
+        <v>0.01936563817014287</v>
       </c>
       <c r="Q66" t="s">
         <v>79</v>
@@ -4180,31 +4180,31 @@
         <v>2</v>
       </c>
       <c r="H67">
-        <v>0.1009074938633111</v>
+        <v>0.1018119831948096</v>
       </c>
       <c r="I67">
-        <v>0.01273362752491134</v>
+        <v>0.01278320438915138</v>
       </c>
       <c r="J67">
-        <v>0.8863588786117776</v>
+        <v>0.8854048124160391</v>
       </c>
       <c r="K67">
-        <v>-0.1370393239617064</v>
+        <v>-0.1378327128390626</v>
       </c>
       <c r="L67">
-        <v>-0.08837339983532012</v>
+        <v>-0.08853357495166567</v>
       </c>
       <c r="M67">
-        <v>0.2254127237970267</v>
+        <v>0.2263662877907284</v>
       </c>
       <c r="N67">
-        <v>0.2254127237970267</v>
+        <v>0.2263662877907284</v>
       </c>
       <c r="O67">
-        <v>0.4508254475940532</v>
+        <v>0.4527325755814567</v>
       </c>
       <c r="P67">
-        <v>0.007934246083491575</v>
+        <v>0.00799280330776681</v>
       </c>
       <c r="Q67" t="s">
         <v>79</v>
@@ -4233,31 +4233,31 @@
         <v>2</v>
       </c>
       <c r="H68">
-        <v>0.2379468178250176</v>
+        <v>0.2396446960338722</v>
       </c>
       <c r="I68">
-        <v>0.1011070273602315</v>
+        <v>0.101316779340817</v>
       </c>
       <c r="J68">
-        <v>0.6609461548147509</v>
+        <v>0.6590385246253107</v>
       </c>
       <c r="K68">
-        <v>0.1370393239617064</v>
+        <v>0.1378327128390626</v>
       </c>
       <c r="L68">
-        <v>0.08837339983532012</v>
+        <v>0.08853357495166567</v>
       </c>
       <c r="M68">
-        <v>-0.2254127237970267</v>
+        <v>-0.2263662877907284</v>
       </c>
       <c r="N68">
-        <v>0.2254127237970267</v>
+        <v>0.2263662877907284</v>
       </c>
       <c r="O68">
-        <v>0.4508254475940532</v>
+        <v>0.4527325755814567</v>
       </c>
       <c r="P68">
-        <v>0.01930090016325802</v>
+        <v>0.01936563817014287</v>
       </c>
       <c r="Q68" t="s">
         <v>80</v>
@@ -4286,31 +4286,31 @@
         <v>2</v>
       </c>
       <c r="H69">
-        <v>0.4484488721483146</v>
+        <v>0.4505719099418108</v>
       </c>
       <c r="I69">
-        <v>0.1576392148568684</v>
+        <v>0.1575896002424802</v>
       </c>
       <c r="J69">
-        <v>0.393911912994817</v>
+        <v>0.391838489815709</v>
       </c>
       <c r="K69">
-        <v>0.210502054323297</v>
+        <v>0.2109272139079386</v>
       </c>
       <c r="L69">
-        <v>0.0565321874966369</v>
+        <v>0.05627282090166319</v>
       </c>
       <c r="M69">
-        <v>-0.2670342418199339</v>
+        <v>-0.2672000348096016</v>
       </c>
       <c r="N69">
-        <v>0.2670342418199339</v>
+        <v>0.2672000348096016</v>
       </c>
       <c r="O69">
-        <v>0.5340684836398678</v>
+        <v>0.5344000696192034</v>
       </c>
       <c r="P69">
-        <v>0.02406743468146027</v>
+        <v>0.02405717493533467</v>
       </c>
       <c r="Q69" t="s">
         <v>80</v>
@@ -4348,19 +4348,19 @@
         <v>0.1968752508903795</v>
       </c>
       <c r="K70">
-        <v>0.2746390784332469</v>
+        <v>0.2725160406397507</v>
       </c>
       <c r="L70">
-        <v>-0.07760241632880947</v>
+        <v>-0.07755280171442135</v>
       </c>
       <c r="M70">
-        <v>-0.1970366621044376</v>
+        <v>-0.1949632389253295</v>
       </c>
       <c r="N70">
-        <v>0.2746390784332469</v>
+        <v>0.2725160406397507</v>
       </c>
       <c r="O70">
-        <v>0.5492781568664939</v>
+        <v>0.5450320812795016</v>
       </c>
       <c r="P70">
         <v>0.01679914686302169</v>
@@ -4551,31 +4551,31 @@
         <v>2</v>
       </c>
       <c r="H74">
-        <v>0.106313216410811</v>
+        <v>0.1072569224041067</v>
       </c>
       <c r="I74">
-        <v>0.01978755978528462</v>
+        <v>0.01986187109616585</v>
       </c>
       <c r="J74">
-        <v>0.8738992238039043</v>
+        <v>0.8728812064997274</v>
       </c>
       <c r="K74">
-        <v>-0.1488595612907951</v>
+        <v>-0.1479158552974995</v>
       </c>
       <c r="L74">
-        <v>-0.08775371643069041</v>
+        <v>-0.08767940511980918</v>
       </c>
       <c r="M74">
-        <v>0.2366132777214854</v>
+        <v>0.2355952604173086</v>
       </c>
       <c r="N74">
-        <v>0.2366132777214854</v>
+        <v>0.2355952604173086</v>
       </c>
       <c r="O74">
-        <v>0.473226555442971</v>
+        <v>0.4711905208346172</v>
       </c>
       <c r="P74">
-        <v>0.005823121088531326</v>
+        <v>0.005863922244769527</v>
       </c>
       <c r="Q74" t="s">
         <v>67</v>
@@ -4604,31 +4604,31 @@
         <v>3</v>
       </c>
       <c r="H75">
-        <v>0.03633785670340939</v>
+        <v>0.03668992734340081</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>0.9636621432965905</v>
+        <v>0.9633100726565991</v>
       </c>
       <c r="K75">
-        <v>-0.06997535970740165</v>
+        <v>-0.07056699506070593</v>
       </c>
       <c r="L75">
-        <v>-0.01978755978528462</v>
+        <v>-0.01986187109616585</v>
       </c>
       <c r="M75">
-        <v>0.08976291949268622</v>
+        <v>0.09042886615687162</v>
       </c>
       <c r="N75">
-        <v>0.08976291949268622</v>
+        <v>0.09042886615687162</v>
       </c>
       <c r="O75">
-        <v>0.1795258389853725</v>
+        <v>0.1808577323137434</v>
       </c>
       <c r="P75">
-        <v>0.001815717911965063</v>
+        <v>0.001832640266848577</v>
       </c>
       <c r="Q75" t="s">
         <v>67</v>
@@ -4710,31 +4710,31 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>0.08469890624816744</v>
+        <v>0.08547742840057443</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0.9153010937518326</v>
+        <v>0.9145225715994256</v>
       </c>
       <c r="K77">
-        <v>-0.1252584666641777</v>
+        <v>-0.1244799445117707</v>
       </c>
       <c r="L77">
         <v>-0.08675799086757992</v>
       </c>
       <c r="M77">
-        <v>0.2120164575317576</v>
+        <v>0.2112379353793506</v>
       </c>
       <c r="N77">
-        <v>0.2120164575317576</v>
+        <v>0.2112379353793506</v>
       </c>
       <c r="O77">
-        <v>0.4240329150635152</v>
+        <v>0.4224758707587013</v>
       </c>
       <c r="P77">
-        <v>0.004019814894072008</v>
+        <v>0.004053313062534767</v>
       </c>
       <c r="Q77" t="s">
         <v>64</v>
@@ -4772,19 +4772,19 @@
         <v>0.9704432734738639</v>
       </c>
       <c r="K78">
-        <v>-0.05514217972203138</v>
+        <v>-0.05592070187443837</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
       <c r="M78">
-        <v>0.05514217972203139</v>
+        <v>0.05592070187443832</v>
       </c>
       <c r="N78">
-        <v>0.05514217972203139</v>
+        <v>0.05592070187443837</v>
       </c>
       <c r="O78">
-        <v>0.1102843594440628</v>
+        <v>0.1118414037488767</v>
       </c>
       <c r="P78">
         <v>0.001487273222980495</v>
@@ -4922,31 +4922,31 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>0.2740002626431494</v>
+        <v>0.2721721121744075</v>
       </c>
       <c r="I81">
-        <v>0.1142626655439411</v>
+        <v>0.1140649744918982</v>
       </c>
       <c r="J81">
-        <v>0.6117370718129096</v>
+        <v>0.6137629133336943</v>
       </c>
       <c r="K81">
-        <v>-0.2222024504331758</v>
+        <v>-0.2240306009019178</v>
       </c>
       <c r="L81">
-        <v>-0.03213084704675456</v>
+        <v>-0.03232853809879747</v>
       </c>
       <c r="M81">
-        <v>0.2543332974799304</v>
+        <v>0.2563591390007151</v>
       </c>
       <c r="N81">
-        <v>0.2543332974799304</v>
+        <v>0.2563591390007151</v>
       </c>
       <c r="O81">
-        <v>0.5086665949598608</v>
+        <v>0.5127182780014303</v>
       </c>
       <c r="P81">
-        <v>0.01792152181013486</v>
+        <v>0.01787355363882735</v>
       </c>
       <c r="Q81" t="s">
         <v>78</v>
@@ -4975,31 +4975,31 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>0.5004700930292361</v>
+        <v>0.4983378827953688</v>
       </c>
       <c r="I82">
-        <v>0.1461906015871502</v>
+        <v>0.1462919867281731</v>
       </c>
       <c r="J82">
-        <v>0.3533393053836138</v>
+        <v>0.3553701304764582</v>
       </c>
       <c r="K82">
-        <v>0.2264698303860866</v>
+        <v>0.2261657706209613</v>
       </c>
       <c r="L82">
-        <v>0.03192793604320909</v>
+        <v>0.03222701223627487</v>
       </c>
       <c r="M82">
-        <v>-0.2583977664292958</v>
+        <v>-0.2583927828572361</v>
       </c>
       <c r="N82">
-        <v>0.2583977664292958</v>
+        <v>0.2583927828572361</v>
       </c>
       <c r="O82">
-        <v>0.5167955328585916</v>
+        <v>0.5167855657144723</v>
       </c>
       <c r="P82">
-        <v>0.02011031097539734</v>
+        <v>0.02013233598517662</v>
       </c>
       <c r="Q82" t="s">
         <v>72</v>
@@ -5028,31 +5028,31 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>0.7693891548608328</v>
+        <v>0.7678689391106691</v>
       </c>
       <c r="I83">
-        <v>0.06557413040904132</v>
+        <v>0.06576380598993567</v>
       </c>
       <c r="J83">
-        <v>0.1650367147301258</v>
+        <v>0.1663672548993952</v>
       </c>
       <c r="K83">
-        <v>0.2689190618315968</v>
+        <v>0.2695310563153003</v>
       </c>
       <c r="L83">
-        <v>-0.0806164711781089</v>
+        <v>-0.08052818073823742</v>
       </c>
       <c r="M83">
-        <v>-0.188302590653488</v>
+        <v>-0.189002875577063</v>
       </c>
       <c r="N83">
-        <v>0.2689190618315968</v>
+        <v>0.2695310563153003</v>
       </c>
       <c r="O83">
-        <v>0.5378381236631936</v>
+        <v>0.5390621126306008</v>
       </c>
       <c r="P83">
-        <v>0.01255010815315728</v>
+        <v>0.01261247835560044</v>
       </c>
       <c r="Q83" t="s">
         <v>72</v>
@@ -5081,31 +5081,31 @@
         <v>2</v>
       </c>
       <c r="H84">
-        <v>0.5089694618339552</v>
+        <v>0.506849028222723</v>
       </c>
       <c r="I84">
-        <v>0.1457864624027562</v>
+        <v>0.1458872875734123</v>
       </c>
       <c r="J84">
-        <v>0.3452440757632886</v>
+        <v>0.3472636842038647</v>
       </c>
       <c r="K84">
-        <v>-0.2604196930268776</v>
+        <v>-0.2610199108879461</v>
       </c>
       <c r="L84">
-        <v>0.0802123319937149</v>
+        <v>0.08012348158347665</v>
       </c>
       <c r="M84">
-        <v>0.1802073610331628</v>
+        <v>0.1808964293044695</v>
       </c>
       <c r="N84">
-        <v>0.2604196930268776</v>
+        <v>0.2610199108879461</v>
       </c>
       <c r="O84">
-        <v>0.5208393860537552</v>
+        <v>0.5220398217758921</v>
       </c>
       <c r="P84">
-        <v>0.02001676408169655</v>
+        <v>0.02004096318491041</v>
       </c>
       <c r="Q84" t="s">
         <v>78</v>
@@ -5143,19 +5143,19 @@
         <v>0.5994330079312714</v>
       </c>
       <c r="K85">
-        <v>-0.2238658231755224</v>
+        <v>-0.2217453895642903</v>
       </c>
       <c r="L85">
-        <v>-0.03032310899246037</v>
+        <v>-0.03042393416311646</v>
       </c>
       <c r="M85">
-        <v>0.2541889321679828</v>
+        <v>0.2521693237274067</v>
       </c>
       <c r="N85">
-        <v>0.2541889321679828</v>
+        <v>0.2521693237274067</v>
       </c>
       <c r="O85">
-        <v>0.5083778643359657</v>
+        <v>0.5043386474548135</v>
       </c>
       <c r="P85">
         <v>0.01820213994151464</v>
@@ -5511,13 +5511,13 @@
         <v>0.1596638655462185</v>
       </c>
       <c r="J92">
-        <v>0.3960079295022953</v>
+        <v>0.3960079295022954</v>
       </c>
       <c r="K92">
         <v>-0.2713870280697602</v>
       </c>
       <c r="L92">
-        <v>0.07709505820676896</v>
+        <v>0.07709505820676898</v>
       </c>
       <c r="M92">
         <v>0.1942919698629912</v>
@@ -5526,7 +5526,7 @@
         <v>0.2713870280697602</v>
       </c>
       <c r="O92">
-        <v>0.5427740561395202</v>
+        <v>0.5427740561395203</v>
       </c>
       <c r="P92">
         <v>0.01378350257988298</v>
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>0.7157152330212464</v>
+        <v>0.7157152330212463</v>
       </c>
       <c r="I93">
         <v>0.08256880733944955</v>
@@ -5567,22 +5567,22 @@
         <v>0.2017159596393041</v>
       </c>
       <c r="K93">
-        <v>0.2713870280697602</v>
+        <v>0.2713870280697601</v>
       </c>
       <c r="L93">
-        <v>-0.07709505820676896</v>
+        <v>-0.07709505820676898</v>
       </c>
       <c r="M93">
         <v>-0.1942919698629912</v>
       </c>
       <c r="N93">
-        <v>0.2713870280697602</v>
+        <v>0.2713870280697601</v>
       </c>
       <c r="O93">
         <v>0.5427740561395202</v>
       </c>
       <c r="P93">
-        <v>0.009783217086726189</v>
+        <v>0.009783217086726193</v>
       </c>
       <c r="Q93" t="s">
         <v>69</v>
@@ -5664,31 +5664,31 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>0.569121134078725</v>
+        <v>0.5670389009009226</v>
       </c>
       <c r="I95">
-        <v>0.1286537052165136</v>
+        <v>0.12881444559789</v>
       </c>
       <c r="J95">
-        <v>0.3022251607047614</v>
+        <v>0.3041466535011876</v>
       </c>
       <c r="K95">
-        <v>0.2530784937729342</v>
+        <v>0.2509962605951318</v>
       </c>
       <c r="L95">
-        <v>-0.002913815408757736</v>
+        <v>-0.002753075027381396</v>
       </c>
       <c r="M95">
-        <v>-0.2501646783641764</v>
+        <v>-0.2482431855677502</v>
       </c>
       <c r="N95">
-        <v>0.2530784937729342</v>
+        <v>0.2509962605951318</v>
       </c>
       <c r="O95">
-        <v>0.5061569875458685</v>
+        <v>0.5019925211902634</v>
       </c>
       <c r="P95">
-        <v>0.01262687358035532</v>
+        <v>0.01265263414743135</v>
       </c>
       <c r="Q95" t="s">
         <v>81</v>
@@ -5726,19 +5726,19 @@
         <v>0.1418971887220765</v>
       </c>
       <c r="K96">
-        <v>0.2427251202130277</v>
+        <v>0.2448073533908302</v>
       </c>
       <c r="L96">
-        <v>-0.08239714823034291</v>
+        <v>-0.08255788861171925</v>
       </c>
       <c r="M96">
-        <v>-0.1603279719826848</v>
+        <v>-0.1622494647791111</v>
       </c>
       <c r="N96">
-        <v>0.2427251202130277</v>
+        <v>0.2448073533908302</v>
       </c>
       <c r="O96">
-        <v>0.4854502404260555</v>
+        <v>0.4896147067816605</v>
       </c>
       <c r="P96">
         <v>0.007080692848022384</v>
@@ -6565,31 +6565,31 @@
         <v>2</v>
       </c>
       <c r="H112">
-        <v>0.5537556522918955</v>
+        <v>0.5558669876920941</v>
       </c>
       <c r="I112">
-        <v>0.1303772780851662</v>
+        <v>0.1302167147096241</v>
       </c>
       <c r="J112">
-        <v>0.3158670696229381</v>
+        <v>0.3139162975982819</v>
       </c>
       <c r="K112">
-        <v>-0.2559221484158187</v>
+        <v>-0.2538108130156201</v>
       </c>
       <c r="L112">
-        <v>0.08321196126763408</v>
+        <v>0.08305139789209193</v>
       </c>
       <c r="M112">
-        <v>0.1727101871481846</v>
+        <v>0.1707594151235284</v>
       </c>
       <c r="N112">
-        <v>0.2559221484158187</v>
+        <v>0.2538108130156201</v>
       </c>
       <c r="O112">
-        <v>0.5118442968316375</v>
+        <v>0.5076216260312405</v>
       </c>
       <c r="P112">
-        <v>0.01708398332567995</v>
+        <v>0.01705220910537886</v>
       </c>
       <c r="Q112" t="s">
         <v>73</v>
@@ -6618,31 +6618,31 @@
         <v>3</v>
       </c>
       <c r="H113">
-        <v>0.3101165848244911</v>
+        <v>0.31205823299909</v>
       </c>
       <c r="I113">
-        <v>0.1304979575333879</v>
+        <v>0.1306551342960267</v>
       </c>
       <c r="J113">
-        <v>0.5593854576421209</v>
+        <v>0.5572866327048832</v>
       </c>
       <c r="K113">
-        <v>-0.2436390674674044</v>
+        <v>-0.2438087546930041</v>
       </c>
       <c r="L113">
-        <v>0.0001206794482216667</v>
+        <v>0.0004384195864026441</v>
       </c>
       <c r="M113">
-        <v>0.2435183880191827</v>
+        <v>0.2433703351066013</v>
       </c>
       <c r="N113">
-        <v>0.2436390674674044</v>
+        <v>0.2438087546930041</v>
       </c>
       <c r="O113">
-        <v>0.4872781349348088</v>
+        <v>0.4876175093860081</v>
       </c>
       <c r="P113">
-        <v>0.01700402656814587</v>
+        <v>0.01703645938097853</v>
       </c>
       <c r="Q113" t="s">
         <v>73</v>
@@ -6777,31 +6777,31 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>0.88930154674051</v>
+        <v>0.8902405805161542</v>
       </c>
       <c r="I116">
-        <v>0.009485702829056326</v>
+        <v>0.009448001818009746</v>
       </c>
       <c r="J116">
-        <v>0.1012127504304337</v>
+        <v>0.1003114176658361</v>
       </c>
       <c r="K116">
-        <v>0.2230372347615394</v>
+        <v>0.2239762685371836</v>
       </c>
       <c r="L116">
-        <v>-0.08920740217319695</v>
+        <v>-0.08924510318424353</v>
       </c>
       <c r="M116">
-        <v>-0.1338298325883424</v>
+        <v>-0.13473116535294</v>
       </c>
       <c r="N116">
-        <v>0.2230372347615394</v>
+        <v>0.2239762685371836</v>
       </c>
       <c r="O116">
-        <v>0.4460744695230787</v>
+        <v>0.4479525370743671</v>
       </c>
       <c r="P116">
-        <v>0.003681643695501521</v>
+        <v>0.003654075250921813</v>
       </c>
       <c r="Q116" t="s">
         <v>80</v>
@@ -6830,31 +6830,31 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>0.6508399933888348</v>
+        <v>0.6527975785770321</v>
       </c>
       <c r="I117">
-        <v>0.1004253283511728</v>
+        <v>0.1002054823495048</v>
       </c>
       <c r="J117">
-        <v>0.2487346782599925</v>
+        <v>0.246996939073463</v>
       </c>
       <c r="K117">
-        <v>-0.2384615533516752</v>
+        <v>-0.237443001939122</v>
       </c>
       <c r="L117">
-        <v>0.09093962552211647</v>
+        <v>0.09075748053149506</v>
       </c>
       <c r="M117">
-        <v>0.1475219278295587</v>
+        <v>0.1466855214076269</v>
       </c>
       <c r="N117">
-        <v>0.2384615533516752</v>
+        <v>0.237443001939122</v>
       </c>
       <c r="O117">
-        <v>0.4769231067033504</v>
+        <v>0.474886003878244</v>
       </c>
       <c r="P117">
-        <v>0.009341724375223679</v>
+        <v>0.009311235088877899</v>
       </c>
       <c r="Q117" t="s">
         <v>82</v>
@@ -7172,7 +7172,7 @@
         <v>0.4979728958711811</v>
       </c>
       <c r="P123">
-        <v>0.01325599429911547</v>
+        <v>0.01325599429911546</v>
       </c>
       <c r="Q123" t="s">
         <v>72</v>
@@ -7201,31 +7201,31 @@
         <v>3</v>
       </c>
       <c r="H124">
-        <v>0.05499320455499931</v>
+        <v>0.05551547937090666</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124">
-        <v>0.9450067954450007</v>
+        <v>0.9444845206290934</v>
       </c>
       <c r="K124">
-        <v>-0.09056542546185742</v>
+        <v>-0.09004315064595005</v>
       </c>
       <c r="L124">
         <v>-0.0474817928995598</v>
       </c>
       <c r="M124">
-        <v>0.1380472183614171</v>
+        <v>0.1375249435455098</v>
       </c>
       <c r="N124">
-        <v>0.1380472183614171</v>
+        <v>0.1375249435455098</v>
       </c>
       <c r="O124">
-        <v>0.2760944367228343</v>
+        <v>0.2750498870910196</v>
       </c>
       <c r="P124">
-        <v>0.00423450720063322</v>
+        <v>0.00427236014912871</v>
       </c>
       <c r="Q124" t="s">
         <v>72</v>
@@ -7254,31 +7254,31 @@
         <v>3</v>
       </c>
       <c r="H125">
-        <v>0.1431568824747535</v>
+        <v>0.1443537408265577</v>
       </c>
       <c r="I125">
-        <v>0.04716531681753217</v>
+        <v>0.04732302575041582</v>
       </c>
       <c r="J125">
-        <v>0.8096778007077142</v>
+        <v>0.8083232334230265</v>
       </c>
       <c r="K125">
-        <v>0.08816367791975419</v>
+        <v>0.088838261455651</v>
       </c>
       <c r="L125">
-        <v>0.04716531681753217</v>
+        <v>0.04732302575041582</v>
       </c>
       <c r="M125">
-        <v>-0.1353289947372864</v>
+        <v>-0.1361612872060669</v>
       </c>
       <c r="N125">
-        <v>0.1353289947372864</v>
+        <v>0.1361612872060669</v>
       </c>
       <c r="O125">
-        <v>0.2706579894745728</v>
+        <v>0.2723225744121337</v>
       </c>
       <c r="P125">
-        <v>0.01310643477125198</v>
+        <v>0.01318109951692307</v>
       </c>
       <c r="Q125" t="s">
         <v>83</v>
@@ -7307,31 +7307,31 @@
         <v>4</v>
       </c>
       <c r="H126">
-        <v>0.0529508017989083</v>
+        <v>0.05345452382807847</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126">
-        <v>0.9470491982010917</v>
+        <v>0.9465454761719215</v>
       </c>
       <c r="K126">
-        <v>-0.09020608067584521</v>
+        <v>-0.09089921699847919</v>
       </c>
       <c r="L126">
-        <v>-0.04716531681753217</v>
+        <v>-0.04732302575041582</v>
       </c>
       <c r="M126">
-        <v>0.1373713974933775</v>
+        <v>0.1382222427488951</v>
       </c>
       <c r="N126">
-        <v>0.1373713974933775</v>
+        <v>0.1382222427488951</v>
       </c>
       <c r="O126">
-        <v>0.2747427949867548</v>
+        <v>0.27644448549779</v>
       </c>
       <c r="P126">
-        <v>0.004086053024187936</v>
+        <v>0.004122729739365263</v>
       </c>
       <c r="Q126" t="s">
         <v>72</v>
@@ -7731,31 +7731,31 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>0.5244137662759781</v>
+        <v>0.5222935549413155</v>
       </c>
       <c r="I134">
-        <v>0.1407750258421814</v>
+        <v>0.1408965399874991</v>
       </c>
       <c r="J134">
-        <v>0.3348112078818405</v>
+        <v>0.3368099050711855</v>
       </c>
       <c r="K134">
-        <v>-0.2518695159636007</v>
+        <v>-0.2539897272982634</v>
       </c>
       <c r="L134">
-        <v>0.08018319869328516</v>
+        <v>0.08030471283860288</v>
       </c>
       <c r="M134">
-        <v>0.1716863172703157</v>
+        <v>0.1736850144596607</v>
       </c>
       <c r="N134">
-        <v>0.2518695159636007</v>
+        <v>0.2539897272982634</v>
       </c>
       <c r="O134">
-        <v>0.5037390319272016</v>
+        <v>0.5079794545965269</v>
       </c>
       <c r="P134">
-        <v>0.0175725644123283</v>
+        <v>0.01759753171354824</v>
       </c>
       <c r="Q134" t="s">
         <v>74</v>
@@ -7784,31 +7784,31 @@
         <v>1</v>
       </c>
       <c r="H135">
-        <v>0.7908515821453215</v>
+        <v>0.7894338698532433</v>
       </c>
       <c r="I135">
-        <v>0.05878946447479422</v>
+        <v>0.05896486117409268</v>
       </c>
       <c r="J135">
-        <v>0.1503589533798842</v>
+        <v>0.151601268972664</v>
       </c>
       <c r="K135">
-        <v>0.2664378158693433</v>
+        <v>0.2671403149119278</v>
       </c>
       <c r="L135">
-        <v>-0.08198556136738713</v>
+        <v>-0.08193167881340639</v>
       </c>
       <c r="M135">
-        <v>-0.1844522545019563</v>
+        <v>-0.1852086360985216</v>
       </c>
       <c r="N135">
-        <v>0.2664378158693433</v>
+        <v>0.2671403149119278</v>
       </c>
       <c r="O135">
-        <v>0.5328756317386868</v>
+        <v>0.5342806298238558</v>
       </c>
       <c r="P135">
-        <v>0.01032562248958561</v>
+        <v>0.01038027749692238</v>
       </c>
       <c r="Q135" t="s">
         <v>64</v>
@@ -7837,31 +7837,31 @@
         <v>2</v>
       </c>
       <c r="H136">
-        <v>0.5286432365665468</v>
+        <v>0.5265303236718624</v>
       </c>
       <c r="I136">
-        <v>0.1405326252573421</v>
+        <v>0.1406537211124254</v>
       </c>
       <c r="J136">
-        <v>0.3308241381761113</v>
+        <v>0.3328159552157123</v>
       </c>
       <c r="K136">
-        <v>-0.2622083455787747</v>
+        <v>-0.2629035461813809</v>
       </c>
       <c r="L136">
-        <v>0.08174316078254787</v>
+        <v>0.08168885993833273</v>
       </c>
       <c r="M136">
-        <v>0.1804651847962271</v>
+        <v>0.1812146862430483</v>
       </c>
       <c r="N136">
-        <v>0.2622083455787747</v>
+        <v>0.2629035461813809</v>
       </c>
       <c r="O136">
-        <v>0.5244166911575496</v>
+        <v>0.525807092362762</v>
       </c>
       <c r="P136">
-        <v>0.01752125331172619</v>
+        <v>0.01754713745022474</v>
       </c>
       <c r="Q136" t="s">
         <v>74</v>
@@ -8473,31 +8473,31 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>0.9901722491701166</v>
+        <v>0.990123837775249</v>
       </c>
       <c r="I148">
         <v>0</v>
       </c>
       <c r="J148">
-        <v>0.009827750829883351</v>
+        <v>0.009876162224750927</v>
       </c>
       <c r="K148">
-        <v>0.0001493286193714471</v>
+        <v>0.0001009172245038936</v>
       </c>
       <c r="L148">
         <v>0</v>
       </c>
       <c r="M148">
-        <v>-0.0001493286193714853</v>
+        <v>-0.0001009172245039092</v>
       </c>
       <c r="N148">
-        <v>0.0001493286193714853</v>
+        <v>0.0001009172245039092</v>
       </c>
       <c r="O148">
-        <v>0.0002986572387429325</v>
+        <v>0.0002018344490078029</v>
       </c>
       <c r="P148">
-        <v>0.0005045789852189907</v>
+        <v>0.0005070397445276254</v>
       </c>
       <c r="Q148" t="s">
         <v>73</v>
@@ -8738,31 +8738,31 @@
         <v>1</v>
       </c>
       <c r="H153">
-        <v>0.1335905161485026</v>
+        <v>0.1347241067216041</v>
       </c>
       <c r="I153">
-        <v>0.04293580166386413</v>
+        <v>0.04308033841490821</v>
       </c>
       <c r="J153">
-        <v>0.8234736821876332</v>
+        <v>0.8221955548634877</v>
       </c>
       <c r="K153">
-        <v>-0.1702837397444143</v>
+        <v>-0.1691501491713128</v>
       </c>
       <c r="L153">
-        <v>-0.08408296743260033</v>
+        <v>-0.08393843068155624</v>
       </c>
       <c r="M153">
-        <v>0.2543667071770145</v>
+        <v>0.253088579852869</v>
       </c>
       <c r="N153">
-        <v>0.2543667071770145</v>
+        <v>0.253088579852869</v>
       </c>
       <c r="O153">
-        <v>0.5087334143540292</v>
+        <v>0.5061771597057381</v>
       </c>
       <c r="P153">
-        <v>0.00895410920518515</v>
+        <v>0.009007050935491687</v>
       </c>
       <c r="Q153" t="s">
         <v>79</v>
@@ -8791,31 +8791,31 @@
         <v>2</v>
       </c>
       <c r="H154">
-        <v>0.04879764046265378</v>
+        <v>0.0492640491396921</v>
       </c>
       <c r="I154">
         <v>0</v>
       </c>
       <c r="J154">
-        <v>0.9512023595373462</v>
+        <v>0.9507359508603079</v>
       </c>
       <c r="K154">
-        <v>-0.08479287568584884</v>
+        <v>-0.08546005758191202</v>
       </c>
       <c r="L154">
-        <v>-0.04293580166386413</v>
+        <v>-0.04308033841490821</v>
       </c>
       <c r="M154">
-        <v>0.127728677349713</v>
+        <v>0.1285403959968202</v>
       </c>
       <c r="N154">
-        <v>0.127728677349713</v>
+        <v>0.1285403959968202</v>
       </c>
       <c r="O154">
-        <v>0.255457354699426</v>
+        <v>0.2570807919936404</v>
       </c>
       <c r="P154">
-        <v>0.002750603303581118</v>
+        <v>0.00277553200604765</v>
       </c>
       <c r="Q154" t="s">
         <v>79</v>
@@ -8844,31 +8844,31 @@
         <v>2</v>
       </c>
       <c r="H155">
-        <v>0.1335905161485026</v>
+        <v>0.1347241067216041</v>
       </c>
       <c r="I155">
-        <v>0.04293580166386413</v>
+        <v>0.04308033841490821</v>
       </c>
       <c r="J155">
-        <v>0.8234736821876332</v>
+        <v>0.8221955548634877</v>
       </c>
       <c r="K155">
-        <v>0.08479287568584884</v>
+        <v>0.08546005758191202</v>
       </c>
       <c r="L155">
-        <v>0.04293580166386413</v>
+        <v>0.04308033841490821</v>
       </c>
       <c r="M155">
-        <v>-0.127728677349713</v>
+        <v>-0.1285403959968202</v>
       </c>
       <c r="N155">
-        <v>0.127728677349713</v>
+        <v>0.1285403959968202</v>
       </c>
       <c r="O155">
-        <v>0.255457354699426</v>
+        <v>0.2570807919936404</v>
       </c>
       <c r="P155">
-        <v>0.00895410920518515</v>
+        <v>0.009007050935491687</v>
       </c>
       <c r="Q155" t="s">
         <v>81</v>
@@ -8906,19 +8906,19 @@
         <v>0.5815527795103378</v>
       </c>
       <c r="K156">
-        <v>0.1588406427249444</v>
+        <v>0.1577070521518429</v>
       </c>
       <c r="L156">
-        <v>0.08308025995235113</v>
+        <v>0.08293572320130704</v>
       </c>
       <c r="M156">
-        <v>-0.2419209026772954</v>
+        <v>-0.2406427753531499</v>
       </c>
       <c r="N156">
-        <v>0.2419209026772954</v>
+        <v>0.2406427753531499</v>
       </c>
       <c r="O156">
-        <v>0.4838418053545909</v>
+        <v>0.4812855507062999</v>
       </c>
       <c r="P156">
         <v>0.01660445434602879</v>
@@ -9056,31 +9056,31 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>0.03593684884547165</v>
+        <v>0.03628518049041867</v>
       </c>
       <c r="I159">
         <v>0</v>
       </c>
       <c r="J159">
-        <v>0.9640631511545285</v>
+        <v>0.9637148195095814</v>
       </c>
       <c r="K159">
-        <v>-0.07318071307931662</v>
+        <v>-0.0728323814343696</v>
       </c>
       <c r="L159">
         <v>-0.01912702305051496</v>
       </c>
       <c r="M159">
-        <v>0.09230773612983179</v>
+        <v>0.09195940448488471</v>
       </c>
       <c r="N159">
-        <v>0.09230773612983179</v>
+        <v>0.09195940448488471</v>
       </c>
       <c r="O159">
-        <v>0.1846154722596633</v>
+        <v>0.1839188089697693</v>
       </c>
       <c r="P159">
-        <v>0.000769897594233985</v>
+        <v>0.0007770792481599198</v>
       </c>
       <c r="Q159" t="s">
         <v>75</v>
@@ -9268,31 +9268,31 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <v>0.1851040762277387</v>
+        <v>0.186548863766279</v>
       </c>
       <c r="I163">
-        <v>0.07838687183021395</v>
+        <v>0.07858938293049667</v>
       </c>
       <c r="J163">
-        <v>0.7365090519420473</v>
+        <v>0.7348617533032242</v>
       </c>
       <c r="K163">
-        <v>-0.2046622951568504</v>
+        <v>-0.20321750761831</v>
       </c>
       <c r="L163">
-        <v>-0.07915314501898577</v>
+        <v>-0.07895063391870305</v>
       </c>
       <c r="M163">
-        <v>0.283815440175836</v>
+        <v>0.2821681415370129</v>
       </c>
       <c r="N163">
-        <v>0.283815440175836</v>
+        <v>0.2821681415370129</v>
       </c>
       <c r="O163">
-        <v>0.5676308803516721</v>
+        <v>0.5643362830740259</v>
       </c>
       <c r="P163">
-        <v>0.00772493325362918</v>
+        <v>0.007759285812041206</v>
       </c>
       <c r="Q163" t="s">
         <v>69</v>
@@ -9330,19 +9330,19 @@
         <v>0.9235973240191558</v>
       </c>
       <c r="K164">
-        <v>-0.1087014002468944</v>
+        <v>-0.1101461877854348</v>
       </c>
       <c r="L164">
-        <v>-0.07838687183021395</v>
+        <v>-0.07858938293049667</v>
       </c>
       <c r="M164">
-        <v>0.1870882720771085</v>
+        <v>0.1887355707159316</v>
       </c>
       <c r="N164">
-        <v>0.1870882720771085</v>
+        <v>0.1887355707159316</v>
       </c>
       <c r="O164">
-        <v>0.3741765441542169</v>
+        <v>0.3774711414318631</v>
       </c>
       <c r="P164">
         <v>0.002613529891992975</v>
@@ -9480,31 +9480,31 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>0.935458598455547</v>
+        <v>0.9348521692958586</v>
       </c>
       <c r="I167">
         <v>0</v>
       </c>
       <c r="J167">
-        <v>0.06454140154445284</v>
+        <v>0.06514783070414154</v>
       </c>
       <c r="K167">
-        <v>0.1706735296775054</v>
+        <v>0.1700671005178169</v>
       </c>
       <c r="L167">
         <v>-0.06498363721365123</v>
       </c>
       <c r="M167">
-        <v>-0.1056898924638541</v>
+        <v>-0.1050834633041654</v>
       </c>
       <c r="N167">
-        <v>0.1706735296775054</v>
+        <v>0.1700671005178169</v>
       </c>
       <c r="O167">
-        <v>0.3413470593550108</v>
+        <v>0.3401342010356336</v>
       </c>
       <c r="P167">
-        <v>0.002236141075227059</v>
+        <v>0.002255688550321704</v>
       </c>
       <c r="Q167" t="s">
         <v>73</v>
@@ -9798,31 +9798,31 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>0.7154911812311524</v>
+        <v>0.7137523445297103</v>
       </c>
       <c r="I173">
-        <v>0.08340602403001605</v>
+        <v>0.08361727176794841</v>
       </c>
       <c r="J173">
-        <v>0.2011027947388314</v>
+        <v>0.2026303837023413</v>
       </c>
       <c r="K173">
-        <v>0.275335527751789</v>
+        <v>0.2735966910503468</v>
       </c>
       <c r="L173">
-        <v>-0.07731575523981189</v>
+        <v>-0.07710450750187954</v>
       </c>
       <c r="M173">
-        <v>-0.1980197725119773</v>
+        <v>-0.1964921835484675</v>
       </c>
       <c r="N173">
-        <v>0.275335527751789</v>
+        <v>0.2735966910503468</v>
       </c>
       <c r="O173">
-        <v>0.5506710555035782</v>
+        <v>0.5471933821006938</v>
       </c>
       <c r="P173">
-        <v>0.009792743792981911</v>
+        <v>0.009833481558690417</v>
       </c>
       <c r="Q173" t="s">
         <v>80</v>
@@ -9851,31 +9851,31 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>0.919860288583033</v>
+        <v>0.9191197839661166</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174">
-        <v>0.08013971141696692</v>
+        <v>0.08088021603388329</v>
       </c>
       <c r="K174">
-        <v>0.2043691073518806</v>
+        <v>0.2053674394364063</v>
       </c>
       <c r="L174">
-        <v>-0.08340602403001605</v>
+        <v>-0.08361727176794841</v>
       </c>
       <c r="M174">
-        <v>-0.1209630833218645</v>
+        <v>-0.121750167668458</v>
       </c>
       <c r="N174">
-        <v>0.2043691073518806</v>
+        <v>0.2053674394364063</v>
       </c>
       <c r="O174">
-        <v>0.4087382147037612</v>
+        <v>0.4107348788728127</v>
       </c>
       <c r="P174">
-        <v>0.003276326136487653</v>
+        <v>0.00330393807503092</v>
       </c>
       <c r="Q174" t="s">
         <v>80</v>
@@ -10078,13 +10078,13 @@
         <v>-0.02231220168691042</v>
       </c>
       <c r="M178">
-        <v>-0.2277897700998083</v>
+        <v>-0.2277897700998084</v>
       </c>
       <c r="N178">
         <v>0.2501019717867188</v>
       </c>
       <c r="O178">
-        <v>0.5002039435734376</v>
+        <v>0.5002039435734377</v>
       </c>
       <c r="P178">
         <v>0.006119565842609467</v>
@@ -10275,7 +10275,7 @@
         <v>2</v>
       </c>
       <c r="H182">
-        <v>0.07782632795625792</v>
+        <v>0.07782632795625791</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -10284,7 +10284,7 @@
         <v>0.9221736720437421</v>
       </c>
       <c r="K182">
-        <v>-0.1190489229341215</v>
+        <v>-0.1190489229341216</v>
       </c>
       <c r="L182">
         <v>-0.08003679852805888</v>
@@ -10296,7 +10296,7 @@
         <v>0.1990857214621806</v>
       </c>
       <c r="O182">
-        <v>0.398171442924361</v>
+        <v>0.3981714429243611</v>
       </c>
       <c r="P182">
         <v>0.003721375810605335</v>
@@ -10487,31 +10487,31 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>0.4347068104203404</v>
+        <v>0.4326173638030108</v>
       </c>
       <c r="I186">
-        <v>0.1652278254191102</v>
+        <v>0.1652357624588611</v>
       </c>
       <c r="J186">
-        <v>0.4000653641605493</v>
+        <v>0.402146873738128</v>
       </c>
       <c r="K186">
-        <v>0.2128546162925699</v>
+        <v>0.2107651696752403</v>
       </c>
       <c r="L186">
-        <v>0.07266884175304854</v>
+        <v>0.07267677879279942</v>
       </c>
       <c r="M186">
-        <v>-0.2855234580456184</v>
+        <v>-0.2834419484680397</v>
       </c>
       <c r="N186">
-        <v>0.2855234580456184</v>
+        <v>0.2834419484680397</v>
       </c>
       <c r="O186">
-        <v>0.5710469160912368</v>
+        <v>0.5668838969360794</v>
       </c>
       <c r="P186">
-        <v>0.0161694156057916</v>
+        <v>0.01617303984808872</v>
       </c>
       <c r="Q186" t="s">
         <v>67</v>
@@ -10593,31 +10593,31 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>0.0657773391728502</v>
+        <v>0.06639471196549736</v>
       </c>
       <c r="I188">
         <v>0</v>
       </c>
       <c r="J188">
-        <v>0.9342226608271498</v>
+        <v>0.9336052880345026</v>
       </c>
       <c r="K188">
-        <v>-0.1095628301339657</v>
+        <v>-0.1089454573413186</v>
       </c>
       <c r="L188">
         <v>-0.06803355079217148</v>
       </c>
       <c r="M188">
-        <v>0.1775963809261372</v>
+        <v>0.17697900813349</v>
       </c>
       <c r="N188">
-        <v>0.1775963809261372</v>
+        <v>0.17697900813349</v>
       </c>
       <c r="O188">
-        <v>0.3551927618522744</v>
+        <v>0.35395801626698</v>
       </c>
       <c r="P188">
-        <v>0.001820760913309334</v>
+        <v>0.001836635679659734</v>
       </c>
       <c r="Q188" t="s">
         <v>68</v>
@@ -10964,7 +10964,7 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <v>0.7228440979870774</v>
+        <v>0.7228440979870773</v>
       </c>
       <c r="I195">
         <v>0.08088385128461595</v>
@@ -10973,7 +10973,7 @@
         <v>0.1962720507283066</v>
       </c>
       <c r="K195">
-        <v>0.2743364043527138</v>
+        <v>0.2743364043527137</v>
       </c>
       <c r="L195">
         <v>-0.07771943016258639</v>
@@ -10982,13 +10982,13 @@
         <v>-0.1966169741901274</v>
       </c>
       <c r="N195">
-        <v>0.2743364043527138</v>
+        <v>0.2743364043527137</v>
       </c>
       <c r="O195">
-        <v>0.5486728087054277</v>
+        <v>0.5486728087054276</v>
       </c>
       <c r="P195">
-        <v>0.006406392514215134</v>
+        <v>0.006406392514215136</v>
       </c>
       <c r="Q195" t="s">
         <v>74</v>
@@ -11026,7 +11026,7 @@
         <v>0.08203727492006176</v>
       </c>
       <c r="K196">
-        <v>0.1951186270928608</v>
+        <v>0.1951186270928609</v>
       </c>
       <c r="L196">
         <v>-0.08088385128461595</v>
@@ -11035,10 +11035,10 @@
         <v>-0.1142347758082449</v>
       </c>
       <c r="N196">
-        <v>0.1951186270928608</v>
+        <v>0.1951186270928609</v>
       </c>
       <c r="O196">
-        <v>0.3902372541857216</v>
+        <v>0.3902372541857217</v>
       </c>
       <c r="P196">
         <v>0.002231323272407467</v>
@@ -11123,31 +11123,31 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>0.3614795418441629</v>
+        <v>0.3594402428258734</v>
       </c>
       <c r="I198">
-        <v>0.1465969876537889</v>
+        <v>0.1464951794679015</v>
       </c>
       <c r="J198">
-        <v>0.4919234705020483</v>
+        <v>0.4940645777062251</v>
       </c>
       <c r="K198">
-        <v>-0.2543022151159635</v>
+        <v>-0.256341514134253</v>
       </c>
       <c r="L198">
-        <v>0.03272902132680613</v>
+        <v>0.03262721314091876</v>
       </c>
       <c r="M198">
-        <v>0.2215731937891574</v>
+        <v>0.2237143009933342</v>
       </c>
       <c r="N198">
-        <v>0.2543022151159635</v>
+        <v>0.256341514134253</v>
       </c>
       <c r="O198">
-        <v>0.508604430231927</v>
+        <v>0.512683028268506</v>
       </c>
       <c r="P198">
-        <v>0.006731701813424327</v>
+        <v>0.006724911858732378</v>
       </c>
       <c r="Q198" t="s">
         <v>85</v>
@@ -11282,31 +11282,31 @@
         <v>2</v>
       </c>
       <c r="H201">
-        <v>0.1494396800068048</v>
+        <v>0.1482104339992398</v>
       </c>
       <c r="I201">
-        <v>0.05021068768999962</v>
+        <v>0.05004541922573329</v>
       </c>
       <c r="J201">
-        <v>0.8003496323031956</v>
+        <v>0.801744146775027</v>
       </c>
       <c r="K201">
-        <v>-0.1686447450941343</v>
+        <v>-0.1698739911016994</v>
       </c>
       <c r="L201">
-        <v>-0.08211035352475091</v>
+        <v>-0.08227562198901724</v>
       </c>
       <c r="M201">
-        <v>0.2507550986188852</v>
+        <v>0.2521496130907167</v>
       </c>
       <c r="N201">
-        <v>0.2507550986188852</v>
+        <v>0.2521496130907167</v>
       </c>
       <c r="O201">
-        <v>0.5015101972377705</v>
+        <v>0.5042992261814333</v>
       </c>
       <c r="P201">
-        <v>0.007435269665628907</v>
+        <v>0.00739412103067248</v>
       </c>
       <c r="Q201" t="s">
         <v>86</v>
@@ -11344,19 +11344,19 @@
         <v>0.9431840165381101</v>
       </c>
       <c r="K202">
-        <v>-0.09262369654491497</v>
+        <v>-0.09139445053734992</v>
       </c>
       <c r="L202">
-        <v>-0.05021068768999962</v>
+        <v>-0.05004541922573329</v>
       </c>
       <c r="M202">
-        <v>0.1428343842349146</v>
+        <v>0.1414398697630831</v>
       </c>
       <c r="N202">
-        <v>0.1428343842349146</v>
+        <v>0.1414398697630831</v>
       </c>
       <c r="O202">
-        <v>0.2856687684698291</v>
+        <v>0.2828797395261663</v>
       </c>
       <c r="P202">
         <v>0.002381685666006583</v>
@@ -11547,31 +11547,31 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>0.2728833446230232</v>
+        <v>0.2747155454308867</v>
       </c>
       <c r="I206">
-        <v>0.1182214983099021</v>
+        <v>0.1184049296349224</v>
       </c>
       <c r="J206">
-        <v>0.6088951570670748</v>
+        <v>0.606879524934191</v>
       </c>
       <c r="K206">
-        <v>-0.2430275578158012</v>
+        <v>-0.2411953570079378</v>
       </c>
       <c r="L206">
-        <v>-0.02304084604389783</v>
+        <v>-0.02285741471887752</v>
       </c>
       <c r="M206">
-        <v>0.266068403859699</v>
+        <v>0.2640527717268152</v>
       </c>
       <c r="N206">
-        <v>0.266068403859699</v>
+        <v>0.2640527717268152</v>
       </c>
       <c r="O206">
-        <v>0.5321368077193981</v>
+        <v>0.5281055434536306</v>
       </c>
       <c r="P206">
-        <v>0.00600894494738863</v>
+        <v>0.00602454315502678</v>
       </c>
       <c r="Q206" t="s">
         <v>87</v>
@@ -11706,31 +11706,31 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>0.2370476199091478</v>
+        <v>0.2387417121874942</v>
       </c>
       <c r="I209">
-        <v>0.1007026677868175</v>
+        <v>0.1009126927039771</v>
       </c>
       <c r="J209">
-        <v>0.6622497123040347</v>
+        <v>0.6603455951085286</v>
       </c>
       <c r="K209">
-        <v>0.1348021956110597</v>
+        <v>0.1364962878894062</v>
       </c>
       <c r="L209">
-        <v>0.08835698877447179</v>
+        <v>0.08856701369163142</v>
       </c>
       <c r="M209">
-        <v>-0.2231591843855315</v>
+        <v>-0.2250633015810376</v>
       </c>
       <c r="N209">
-        <v>0.2231591843855315</v>
+        <v>0.2250633015810376</v>
       </c>
       <c r="O209">
-        <v>0.446318368771063</v>
+        <v>0.4501266031620752</v>
       </c>
       <c r="P209">
-        <v>0.01100206038109443</v>
+        <v>0.01103917151852843</v>
       </c>
       <c r="Q209" t="s">
         <v>83</v>
@@ -11759,31 +11759,31 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>0.4300333771229621</v>
+        <v>0.4321656057108492</v>
       </c>
       <c r="I210">
-        <v>0.1583737380721366</v>
+        <v>0.1583257072067548</v>
       </c>
       <c r="J210">
-        <v>0.4115928848049012</v>
+        <v>0.4095086870823961</v>
       </c>
       <c r="K210">
-        <v>0.1929857572138143</v>
+        <v>0.1934238935233549</v>
       </c>
       <c r="L210">
-        <v>0.05767107028531909</v>
+        <v>0.05741301450277767</v>
       </c>
       <c r="M210">
-        <v>-0.2506568274991335</v>
+        <v>-0.2508369080261326</v>
       </c>
       <c r="N210">
-        <v>0.2506568274991335</v>
+        <v>0.2508369080261326</v>
       </c>
       <c r="O210">
-        <v>0.5013136549982669</v>
+        <v>0.5016738160522651</v>
       </c>
       <c r="P210">
-        <v>0.01379067446282795</v>
+        <v>0.01378818877515796</v>
       </c>
       <c r="Q210" t="s">
         <v>83</v>
@@ -12236,31 +12236,31 @@
         <v>0</v>
       </c>
       <c r="H219">
-        <v>0.3991101419599961</v>
+        <v>0.4011886883672275</v>
       </c>
       <c r="I219">
-        <v>0.1620774057562624</v>
+        <v>0.1621027960930984</v>
       </c>
       <c r="J219">
-        <v>0.4388124522837415</v>
+        <v>0.436708515539674</v>
       </c>
       <c r="K219">
-        <v>0.1916477853772501</v>
+        <v>0.1937263317844816</v>
       </c>
       <c r="L219">
-        <v>0.0765721474114979</v>
+        <v>0.07659753774833392</v>
       </c>
       <c r="M219">
-        <v>-0.2682199327887479</v>
+        <v>-0.2703238695328155</v>
       </c>
       <c r="N219">
-        <v>0.2682199327887479</v>
+        <v>0.2703238695328155</v>
       </c>
       <c r="O219">
-        <v>0.5364398655774959</v>
+        <v>0.540647739065631</v>
       </c>
       <c r="P219">
-        <v>0.02303280151291558</v>
+        <v>0.02303911082518953</v>
       </c>
       <c r="Q219" t="s">
         <v>89</v>
@@ -12289,31 +12289,31 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>0.1982670377936885</v>
+        <v>0.1997806865859413</v>
       </c>
       <c r="I220">
-        <v>0.08424270443709377</v>
+        <v>0.08445053444726962</v>
       </c>
       <c r="J220">
-        <v>0.7174902577692177</v>
+        <v>0.7157687789667891</v>
       </c>
       <c r="K220">
-        <v>-0.2008431041663076</v>
+        <v>-0.2014080017812862</v>
       </c>
       <c r="L220">
-        <v>-0.07783470131916866</v>
+        <v>-0.07765226164582882</v>
       </c>
       <c r="M220">
-        <v>0.2786778054854762</v>
+        <v>0.2790602634271152</v>
       </c>
       <c r="N220">
-        <v>0.2786778054854762</v>
+        <v>0.2790602634271152</v>
       </c>
       <c r="O220">
-        <v>0.5573556109709524</v>
+        <v>0.5581205268542302</v>
       </c>
       <c r="P220">
-        <v>0.01625189179555193</v>
+        <v>0.01631966072426712</v>
       </c>
       <c r="Q220" t="s">
         <v>67</v>
@@ -12342,31 +12342,31 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>0.3908024635537171</v>
+        <v>0.3928784076831426</v>
       </c>
       <c r="I221">
-        <v>0.1619759238974369</v>
+        <v>0.1620012824463322</v>
       </c>
       <c r="J221">
-        <v>0.4472216125488458</v>
+        <v>0.4451203098705252</v>
       </c>
       <c r="K221">
-        <v>0.1925354257600287</v>
+        <v>0.1930977210972013</v>
       </c>
       <c r="L221">
-        <v>0.07773321946034313</v>
+        <v>0.07755074799906263</v>
       </c>
       <c r="M221">
-        <v>-0.2702686452203719</v>
+        <v>-0.2706484690962639</v>
       </c>
       <c r="N221">
-        <v>0.2702686452203719</v>
+        <v>0.2706484690962639</v>
       </c>
       <c r="O221">
-        <v>0.5405372904407437</v>
+        <v>0.5412969381925279</v>
       </c>
       <c r="P221">
-        <v>0.02300111347507879</v>
+        <v>0.02301000188899517</v>
       </c>
       <c r="Q221" t="s">
         <v>89</v>
@@ -12395,31 +12395,31 @@
         <v>2</v>
       </c>
       <c r="H222">
-        <v>0.1982670377936885</v>
+        <v>0.1997806865859413</v>
       </c>
       <c r="I222">
-        <v>0.08424270443709377</v>
+        <v>0.08445053444726962</v>
       </c>
       <c r="J222">
-        <v>0.7174902577692177</v>
+        <v>0.7157687789667891</v>
       </c>
       <c r="K222">
-        <v>-0.1925354257600287</v>
+        <v>-0.1930977210972013</v>
       </c>
       <c r="L222">
-        <v>-0.07773321946034313</v>
+        <v>-0.07755074799906263</v>
       </c>
       <c r="M222">
-        <v>0.2702686452203719</v>
+        <v>0.2706484690962639</v>
       </c>
       <c r="N222">
-        <v>0.2702686452203719</v>
+        <v>0.2706484690962639</v>
       </c>
       <c r="O222">
-        <v>0.5405372904407437</v>
+        <v>0.5412969381925279</v>
       </c>
       <c r="P222">
-        <v>0.01625189179555193</v>
+        <v>0.01631966072426712</v>
       </c>
       <c r="Q222" t="s">
         <v>67</v>
@@ -12448,31 +12448,31 @@
         <v>2</v>
       </c>
       <c r="H223">
-        <v>0.3908024635537171</v>
+        <v>0.3928784076831426</v>
       </c>
       <c r="I223">
-        <v>0.1619759238974369</v>
+        <v>0.1620012824463322</v>
       </c>
       <c r="J223">
-        <v>0.4472216125488458</v>
+        <v>0.4451203098705252</v>
       </c>
       <c r="K223">
-        <v>0.1925354257600287</v>
+        <v>0.1930977210972013</v>
       </c>
       <c r="L223">
-        <v>0.07773321946034313</v>
+        <v>0.07755074799906263</v>
       </c>
       <c r="M223">
-        <v>-0.2702686452203719</v>
+        <v>-0.2706484690962639</v>
       </c>
       <c r="N223">
-        <v>0.2702686452203719</v>
+        <v>0.2706484690962639</v>
       </c>
       <c r="O223">
-        <v>0.5405372904407437</v>
+        <v>0.5412969381925279</v>
       </c>
       <c r="P223">
-        <v>0.02300111347507879</v>
+        <v>0.02301000188899517</v>
       </c>
       <c r="Q223" t="s">
         <v>89</v>
@@ -12501,31 +12501,31 @@
         <v>3</v>
       </c>
       <c r="H224">
-        <v>0.1922862172032871</v>
+        <v>0.193770464299839</v>
       </c>
       <c r="I224">
-        <v>0.0834215139399818</v>
+        <v>0.08362530698018947</v>
       </c>
       <c r="J224">
-        <v>0.724292268856731</v>
+        <v>0.7226042287199714</v>
       </c>
       <c r="K224">
-        <v>-0.1985162463504301</v>
+        <v>-0.1991079433833036</v>
       </c>
       <c r="L224">
-        <v>-0.07855440995745509</v>
+        <v>-0.07837597546614278</v>
       </c>
       <c r="M224">
-        <v>0.2770706563078852</v>
+        <v>0.2774839188494462</v>
       </c>
       <c r="N224">
-        <v>0.2770706563078852</v>
+        <v>0.2774839188494462</v>
       </c>
       <c r="O224">
-        <v>0.5541413126157704</v>
+        <v>0.5549678376988927</v>
       </c>
       <c r="P224">
-        <v>0.0159802804059252</v>
+        <v>0.01604825717901885</v>
       </c>
       <c r="Q224" t="s">
         <v>67</v>
@@ -12660,31 +12660,31 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>0.2857087169394526</v>
+        <v>0.2875842700549563</v>
       </c>
       <c r="I227">
-        <v>0.124517318077089</v>
+        <v>0.1246853172682162</v>
       </c>
       <c r="J227">
-        <v>0.5897739649834582</v>
+        <v>0.5877304126768274</v>
       </c>
       <c r="K227">
-        <v>-0.2540851918993598</v>
+        <v>-0.252209638783856</v>
       </c>
       <c r="L227">
-        <v>-0.01043077880872414</v>
+        <v>-0.01026277961759699</v>
       </c>
       <c r="M227">
-        <v>0.2645159707080839</v>
+        <v>0.262472418401453</v>
       </c>
       <c r="N227">
-        <v>0.2645159707080839</v>
+        <v>0.262472418401453</v>
       </c>
       <c r="O227">
-        <v>0.5290319414161678</v>
+        <v>0.5249448368029059</v>
       </c>
       <c r="P227">
-        <v>0.02055676432560708</v>
+        <v>0.02060451189960771</v>
       </c>
       <c r="Q227" t="s">
         <v>91</v>
@@ -12722,19 +12722,19 @@
         <v>0.3371858885932528</v>
       </c>
       <c r="K228">
-        <v>0.241283135001907</v>
+        <v>0.2394075818864032</v>
       </c>
       <c r="L228">
-        <v>0.01130494138829852</v>
+        <v>0.01113694219717136</v>
       </c>
       <c r="M228">
-        <v>-0.2525880763902054</v>
+        <v>-0.2505445240835745</v>
       </c>
       <c r="N228">
-        <v>0.2525880763902054</v>
+        <v>0.2505445240835745</v>
       </c>
       <c r="O228">
-        <v>0.5051761527804108</v>
+        <v>0.5010890481671491</v>
       </c>
       <c r="P228">
         <v>0.0218569473464708</v>
@@ -14524,19 +14524,19 @@
         <v>0.9900878193274961</v>
       </c>
       <c r="K262">
-        <v>-2.419626224819948e-05</v>
+        <v>-2.419626224819948E-05</v>
       </c>
       <c r="L262">
         <v>0</v>
       </c>
       <c r="M262">
-        <v>2.419626224814397e-05</v>
+        <v>2.419626224814397E-05</v>
       </c>
       <c r="N262">
-        <v>2.419626224819948e-05</v>
+        <v>2.419626224819948E-05</v>
       </c>
       <c r="O262">
-        <v>4.839252449634346e-05</v>
+        <v>4.839252449634346E-05</v>
       </c>
       <c r="P262">
         <v>0.0007996535023334433</v>
@@ -14577,19 +14577,19 @@
         <v>0.9900954711035846</v>
       </c>
       <c r="K263">
-        <v>-7.651776088583168e-06</v>
+        <v>-7.651776088583168E-06</v>
       </c>
       <c r="L263">
         <v>0</v>
       </c>
       <c r="M263">
-        <v>7.651776088524187e-06</v>
+        <v>7.651776088524187E-06</v>
       </c>
       <c r="N263">
-        <v>7.651776088583168e-06</v>
+        <v>7.651776088583168E-06</v>
       </c>
       <c r="O263">
-        <v>1.530355217710735e-05</v>
+        <v>1.530355217710735E-05</v>
       </c>
       <c r="P263">
         <v>0.0007990423795652558</v>
@@ -15628,31 +15628,31 @@
         <v>0</v>
       </c>
       <c r="H283">
-        <v>0.5313317654731452</v>
+        <v>0.5334613330644971</v>
       </c>
       <c r="I283">
-        <v>0.1363516925669893</v>
+        <v>0.1362102569618645</v>
       </c>
       <c r="J283">
-        <v>0.3323165419598655</v>
+        <v>0.3303284099736386</v>
       </c>
       <c r="K283">
-        <v>0.2334831826676731</v>
+        <v>0.235612750259025</v>
       </c>
       <c r="L283">
-        <v>0.01162521554291929</v>
+        <v>0.01148377993779445</v>
       </c>
       <c r="M283">
-        <v>-0.2451083982105923</v>
+        <v>-0.2470965301968193</v>
       </c>
       <c r="N283">
-        <v>0.2451083982105923</v>
+        <v>0.2470965301968193</v>
       </c>
       <c r="O283">
-        <v>0.4902167964211847</v>
+        <v>0.4941930603936386</v>
       </c>
       <c r="P283">
-        <v>0.008720896101824369</v>
+        <v>0.008707391312410676</v>
       </c>
       <c r="Q283" t="s">
         <v>84</v>
@@ -15690,19 +15690,19 @@
         <v>0.5938805394599891</v>
       </c>
       <c r="K284">
-        <v>-0.2485593848652433</v>
+        <v>-0.2506889524565951</v>
       </c>
       <c r="L284">
-        <v>-0.01300461263488036</v>
+        <v>-0.01286317702975552</v>
       </c>
       <c r="M284">
-        <v>0.2615639975001235</v>
+        <v>0.2635521294863505</v>
       </c>
       <c r="N284">
-        <v>0.2615639975001235</v>
+        <v>0.2635521294863505</v>
       </c>
       <c r="O284">
-        <v>0.5231279950002472</v>
+        <v>0.5271042589727011</v>
       </c>
       <c r="P284">
         <v>0.008179721236863322</v>
@@ -15893,31 +15893,31 @@
         <v>0</v>
       </c>
       <c r="H288">
-        <v>0.7122188805620117</v>
+        <v>0.7139715611744353</v>
       </c>
       <c r="I288">
-        <v>0.08299540310836698</v>
+        <v>0.08278155563668295</v>
       </c>
       <c r="J288">
-        <v>0.2047857163296214</v>
+        <v>0.2032468831888818</v>
       </c>
       <c r="K288">
-        <v>0.2678906756105254</v>
+        <v>0.269643356222949</v>
       </c>
       <c r="L288">
-        <v>-0.07666846243785153</v>
+        <v>-0.07688230990953555</v>
       </c>
       <c r="M288">
-        <v>-0.1912222131726738</v>
+        <v>-0.1927610463134135</v>
       </c>
       <c r="N288">
-        <v>0.2678906756105254</v>
+        <v>0.269643356222949</v>
       </c>
       <c r="O288">
-        <v>0.5357813512210508</v>
+        <v>0.5392867124458981</v>
       </c>
       <c r="P288">
-        <v>0.006576575401796127</v>
+        <v>0.006549370790437267</v>
       </c>
       <c r="Q288" t="s">
         <v>83</v>
@@ -15955,19 +15955,19 @@
         <v>0.4126458130563807</v>
       </c>
       <c r="K289">
-        <v>-0.2848377568638297</v>
+        <v>-0.2865904374762533</v>
       </c>
       <c r="L289">
-        <v>0.07697766013707033</v>
+        <v>0.07719150760875436</v>
       </c>
       <c r="M289">
-        <v>0.2078600967267593</v>
+        <v>0.2093989298674989</v>
       </c>
       <c r="N289">
-        <v>0.2848377568638297</v>
+        <v>0.2865904374762533</v>
       </c>
       <c r="O289">
-        <v>0.5696755137276592</v>
+        <v>0.5731808749525066</v>
       </c>
       <c r="P289">
         <v>0.009207072994213172</v>
@@ -16264,31 +16264,31 @@
         <v>1</v>
       </c>
       <c r="H295">
-        <v>0.5856813385846715</v>
+        <v>0.583626720296482</v>
       </c>
       <c r="I295">
-        <v>0.12485377040197</v>
+        <v>0.1250226793207048</v>
       </c>
       <c r="J295">
-        <v>0.2894648910133585</v>
+        <v>0.2913506003828133</v>
       </c>
       <c r="K295">
-        <v>0.2604233443092971</v>
+        <v>0.2583687260211076</v>
       </c>
       <c r="L295">
-        <v>-0.01009432648384315</v>
+        <v>-0.009925417565108396</v>
       </c>
       <c r="M295">
-        <v>-0.2503290178254539</v>
+        <v>-0.2484433084559991</v>
       </c>
       <c r="N295">
-        <v>0.2604233443092971</v>
+        <v>0.2583687260211076</v>
       </c>
       <c r="O295">
-        <v>0.5208466886185941</v>
+        <v>0.5167374520422151</v>
       </c>
       <c r="P295">
-        <v>0.01652145133394679</v>
+        <v>0.01655893359016351</v>
       </c>
       <c r="Q295" t="s">
         <v>73</v>
@@ -16317,31 +16317,31 @@
         <v>2</v>
       </c>
       <c r="H296">
-        <v>0.3371858885932528</v>
+        <v>0.3351871863717139</v>
       </c>
       <c r="I296">
-        <v>0.1358222594653875</v>
+        <v>0.135675780074875</v>
       </c>
       <c r="J296">
-        <v>0.5269918519413596</v>
+        <v>0.5291370335534114</v>
       </c>
       <c r="K296">
-        <v>-0.2484954499914187</v>
+        <v>-0.2484395339247681</v>
       </c>
       <c r="L296">
-        <v>0.01096848906341752</v>
+        <v>0.0106531007541702</v>
       </c>
       <c r="M296">
-        <v>0.237526960928001</v>
+        <v>0.2377864331705981</v>
       </c>
       <c r="N296">
-        <v>0.2484954499914187</v>
+        <v>0.2484395339247681</v>
       </c>
       <c r="O296">
-        <v>0.4969908999828372</v>
+        <v>0.4968790678495364</v>
       </c>
       <c r="P296">
-        <v>0.01748555787717664</v>
+        <v>0.01745942614860991</v>
       </c>
       <c r="Q296" t="s">
         <v>91</v>
@@ -16370,31 +16370,31 @@
         <v>2</v>
       </c>
       <c r="H297">
-        <v>0.5856813385846715</v>
+        <v>0.583626720296482</v>
       </c>
       <c r="I297">
-        <v>0.12485377040197</v>
+        <v>0.1250226793207047</v>
       </c>
       <c r="J297">
-        <v>0.2894648910133585</v>
+        <v>0.2913506003828132</v>
       </c>
       <c r="K297">
-        <v>0.2484954499914187</v>
+        <v>0.2484395339247681</v>
       </c>
       <c r="L297">
-        <v>-0.01096848906341752</v>
+        <v>-0.01065310075417022</v>
       </c>
       <c r="M297">
-        <v>-0.237526960928001</v>
+        <v>-0.2377864331705981</v>
       </c>
       <c r="N297">
-        <v>0.2484954499914187</v>
+        <v>0.2484395339247681</v>
       </c>
       <c r="O297">
-        <v>0.4969908999828372</v>
+        <v>0.4968790678495365</v>
       </c>
       <c r="P297">
-        <v>0.01652145133394679</v>
+        <v>0.01655893359016351</v>
       </c>
       <c r="Q297" t="s">
         <v>73</v>
@@ -16423,31 +16423,31 @@
         <v>3</v>
       </c>
       <c r="H298">
-        <v>0.3331927905618646</v>
+        <v>0.3312026872607655</v>
       </c>
       <c r="I298">
-        <v>0.1355296162894349</v>
+        <v>0.1353837670901591</v>
       </c>
       <c r="J298">
-        <v>0.5312775931487006</v>
+        <v>0.5334135456490755</v>
       </c>
       <c r="K298">
-        <v>-0.252488548022807</v>
+        <v>-0.2524240330357165</v>
       </c>
       <c r="L298">
-        <v>0.01067584588746487</v>
+        <v>0.01036108776945441</v>
       </c>
       <c r="M298">
-        <v>0.2418127021353421</v>
+        <v>0.2420629452662623</v>
       </c>
       <c r="N298">
-        <v>0.252488548022807</v>
+        <v>0.2524240330357165</v>
       </c>
       <c r="O298">
-        <v>0.5049770960456139</v>
+        <v>0.5048480660714332</v>
       </c>
       <c r="P298">
-        <v>0.01743284167241955</v>
+        <v>0.01740580755193502</v>
       </c>
       <c r="Q298" t="s">
         <v>91</v>
@@ -16688,31 +16688,31 @@
         <v>1</v>
       </c>
       <c r="H303">
-        <v>0.2329985623613197</v>
+        <v>0.2295314400009479</v>
       </c>
       <c r="I303">
-        <v>0.1010865386116281</v>
+        <v>0.1006612912163856</v>
       </c>
       <c r="J303">
-        <v>0.6659148990270523</v>
+        <v>0.6698072687826665</v>
       </c>
       <c r="K303">
-        <v>-0.22248898259968</v>
+        <v>-0.2259561049600518</v>
       </c>
       <c r="L303">
-        <v>-0.05574314098365017</v>
+        <v>-0.05616838837889261</v>
       </c>
       <c r="M303">
-        <v>0.2782321235833302</v>
+        <v>0.2821244933389445</v>
       </c>
       <c r="N303">
-        <v>0.2782321235833302</v>
+        <v>0.2821244933389445</v>
       </c>
       <c r="O303">
-        <v>0.5564642471666604</v>
+        <v>0.5642489866778889</v>
       </c>
       <c r="P303">
-        <v>0.01093445619784153</v>
+        <v>0.01085646322639213</v>
       </c>
       <c r="Q303" t="s">
         <v>81</v>
@@ -16741,31 +16741,31 @@
         <v>1</v>
       </c>
       <c r="H304">
-        <v>0.4597307010683501</v>
+        <v>0.4553188847080373</v>
       </c>
       <c r="I304">
-        <v>0.1567234136458761</v>
+        <v>0.1568339035364801</v>
       </c>
       <c r="J304">
-        <v>0.3835458852857738</v>
+        <v>0.3878472117554827</v>
       </c>
       <c r="K304">
-        <v>0.2267321387070305</v>
+        <v>0.2257874447070894</v>
       </c>
       <c r="L304">
-        <v>0.05563687503424798</v>
+        <v>0.05617261232009442</v>
       </c>
       <c r="M304">
-        <v>-0.2823690137412784</v>
+        <v>-0.2819600570271838</v>
       </c>
       <c r="N304">
-        <v>0.2823690137412784</v>
+        <v>0.2819600570271838</v>
       </c>
       <c r="O304">
-        <v>0.5647380274825569</v>
+        <v>0.5639201140543677</v>
       </c>
       <c r="P304">
-        <v>0.0137106223997942</v>
+        <v>0.01372583067251637</v>
       </c>
       <c r="Q304" t="s">
         <v>79</v>
@@ -16794,31 +16794,31 @@
         <v>2</v>
       </c>
       <c r="H305">
-        <v>0.2466148797056173</v>
+        <v>0.2383436021150399</v>
       </c>
       <c r="I305">
-        <v>0.1027565989330169</v>
+        <v>0.1017421151954591</v>
       </c>
       <c r="J305">
-        <v>0.6506285213613657</v>
+        <v>0.6599142826895008</v>
       </c>
       <c r="K305">
-        <v>-0.2131158213627328</v>
+        <v>-0.2169752825929974</v>
       </c>
       <c r="L305">
-        <v>-0.05396681471285912</v>
+        <v>-0.05509178834102092</v>
       </c>
       <c r="M305">
-        <v>0.2670826360755919</v>
+        <v>0.2720670709340181</v>
       </c>
       <c r="N305">
-        <v>0.2670826360755919</v>
+        <v>0.2720670709340181</v>
       </c>
       <c r="O305">
-        <v>0.5341652721511838</v>
+        <v>0.5441341418680364</v>
       </c>
       <c r="P305">
-        <v>0.01122899354832502</v>
+        <v>0.01105231130730629</v>
       </c>
       <c r="Q305" t="s">
         <v>81</v>
@@ -16953,31 +16953,31 @@
         <v>0</v>
       </c>
       <c r="H308">
-        <v>0.5145740605007789</v>
+        <v>0.5124499825576856</v>
       </c>
       <c r="I308">
-        <v>0.1433883841578148</v>
+        <v>0.1434999312890419</v>
       </c>
       <c r="J308">
-        <v>0.3420375553414063</v>
+        <v>0.3440500861532725</v>
       </c>
       <c r="K308">
-        <v>0.2374541467934578</v>
+        <v>0.2353300688503645</v>
       </c>
       <c r="L308">
-        <v>0.02678061030622469</v>
+        <v>0.02689215743745182</v>
       </c>
       <c r="M308">
-        <v>-0.2642347570996824</v>
+        <v>-0.2622222262878162</v>
       </c>
       <c r="N308">
-        <v>0.2642347570996824</v>
+        <v>0.2622222262878162</v>
       </c>
       <c r="O308">
-        <v>0.5284695141993649</v>
+        <v>0.5244444525756325</v>
       </c>
       <c r="P308">
-        <v>0.01328141373965391</v>
+        <v>0.01329849607365764</v>
       </c>
       <c r="Q308" t="s">
         <v>93</v>

--- a/data/out/wiki/men/uefa/eu/tab_prob_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/tab_prob_eu_uefa.xlsx
@@ -14524,19 +14524,19 @@
         <v>0.9900878193274961</v>
       </c>
       <c r="K262">
-        <v>-2.419626224819948E-05</v>
+        <v>-2.419626224819948e-05</v>
       </c>
       <c r="L262">
         <v>0</v>
       </c>
       <c r="M262">
-        <v>2.419626224814397E-05</v>
+        <v>2.419626224814397e-05</v>
       </c>
       <c r="N262">
-        <v>2.419626224819948E-05</v>
+        <v>2.419626224819948e-05</v>
       </c>
       <c r="O262">
-        <v>4.839252449634346E-05</v>
+        <v>4.839252449634346e-05</v>
       </c>
       <c r="P262">
         <v>0.0007996535023334433</v>
@@ -14577,19 +14577,19 @@
         <v>0.9900954711035846</v>
       </c>
       <c r="K263">
-        <v>-7.651776088583168E-06</v>
+        <v>-7.651776088583168e-06</v>
       </c>
       <c r="L263">
         <v>0</v>
       </c>
       <c r="M263">
-        <v>7.651776088524187E-06</v>
+        <v>7.651776088524187e-06</v>
       </c>
       <c r="N263">
-        <v>7.651776088583168E-06</v>
+        <v>7.651776088583168e-06</v>
       </c>
       <c r="O263">
-        <v>1.530355217710735E-05</v>
+        <v>1.530355217710735e-05</v>
       </c>
       <c r="P263">
         <v>0.0007990423795652558</v>
